--- a/regionseng/3/trade/trade.xlsx
+++ b/regionseng/3/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="6135" windowWidth="23670" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,13 +61,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;\-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,23 +127,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,9 +173,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -215,15 +200,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -531,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -544,27 +522,29 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -611,8 +591,14 @@
       <c r="P3" s="3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -658,11 +644,17 @@
       <c r="O4" s="5">
         <v>220.2</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="5">
         <v>181.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="5">
+        <v>182.2</v>
+      </c>
+      <c r="R4" s="5">
+        <v>195.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -708,11 +700,17 @@
       <c r="O5" s="5">
         <v>42.8</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="5">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="5">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="R5" s="5">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -758,11 +756,17 @@
       <c r="O6" s="6">
         <v>3046</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="6">
         <v>1728</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="6">
+        <v>1914</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -808,11 +812,17 @@
       <c r="O7" s="6">
         <v>1490</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="6">
         <v>761</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="6">
+        <v>905</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -858,11 +868,17 @@
       <c r="O8" s="5">
         <v>209.4</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="5">
         <v>394</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="5">
+        <v>425</v>
+      </c>
+      <c r="R8" s="5">
+        <v>499.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -908,11 +924,17 @@
       <c r="O9" s="5">
         <v>7.3</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="5">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="R9" s="5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -958,11 +980,17 @@
       <c r="O10" s="5">
         <v>3.8</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="5">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="R10" s="5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1008,11 +1036,17 @@
       <c r="O11" s="5">
         <v>35.5</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="5">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="5">
+        <v>33.4</v>
+      </c>
+      <c r="R11" s="5">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1058,11 +1092,17 @@
       <c r="O12" s="5">
         <v>0.1</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1108,11 +1148,17 @@
       <c r="O13" s="5">
         <v>183.1</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="5">
         <v>163.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="5">
+        <v>156.5</v>
+      </c>
+      <c r="R13" s="5">
+        <v>168.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1158,11 +1204,17 @@
       <c r="O14" s="5">
         <v>175.9</v>
       </c>
-      <c r="P14" s="14">
-        <v>159.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="12.75">
+      <c r="P14" s="5">
+        <v>1740.3</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="R14" s="5">
+        <v>160.80000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="8" customFormat="1" ht="12.75">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1182,12 +1234,9 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regionseng/3/trade/trade.xlsx
+++ b/regionseng/3/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -522,7 +522,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" customHeight="1">
+    <row r="1" spans="1:19" ht="22.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -543,8 +543,9 @@
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S1" s="12"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -597,8 +598,11 @@
       <c r="R3" s="3">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -653,8 +657,11 @@
       <c r="R4" s="5">
         <v>195.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -709,8 +716,11 @@
       <c r="R5" s="5">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="5">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -765,8 +775,11 @@
       <c r="R6" s="6">
         <v>1955</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -821,8 +834,11 @@
       <c r="R7" s="6">
         <v>1124</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="6">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -877,8 +893,11 @@
       <c r="R8" s="5">
         <v>499.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="5">
+        <v>526.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -933,8 +952,11 @@
       <c r="R9" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1011,11 @@
       <c r="R10" s="5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1045,8 +1070,11 @@
       <c r="R11" s="5">
         <v>31.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1101,8 +1129,11 @@
       <c r="R12" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1157,8 +1188,11 @@
       <c r="R13" s="5">
         <v>168.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1213,8 +1247,11 @@
       <c r="R14" s="5">
         <v>160.80000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="8" customFormat="1" ht="12.75">
+      <c r="S14" s="5">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="8" customFormat="1" ht="12.75">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1273,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
